--- a/core_plates/P3339_JL_seed_plug_corner.xlsx
+++ b/core_plates/P3339_JL_seed_plug_corner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/Shih_Lab_Postdoc/research_projects/crisscross_code/core_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318D420-9EE5-E645-91DC-C8E4B9D5C826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA18AF75-0484-8542-8384-1AA545861D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1240,6 +1240,8 @@
     <col min="3" max="3" width="57.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -2058,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="246" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="F2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
